--- a/battleworld/Excel/Rank_段位表.xlsx
+++ b/battleworld/Excel/Rank_段位表.xlsx
@@ -1,143 +1,276 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149AEF9-B076-4A42-81F1-93CE43971F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>rankName</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>rankIntegral</t>
+  </si>
+  <si>
+    <t>shopId</t>
+  </si>
+  <si>
+    <t>rankImgID</t>
+  </si>
+  <si>
+    <t>rankTicket</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>段位（策划看）</t>
+  </si>
+  <si>
+    <t>段位名称</t>
+  </si>
+  <si>
+    <t>所需积分</t>
+  </si>
+  <si>
+    <t>（被）击败不同段位（丢）得分
+练气|筑基|金丹|元婴|化神|炼虚|合体</t>
+  </si>
+  <si>
+    <t>段位奖励商店ID
+（不填无奖励）</t>
+  </si>
+  <si>
+    <t>段位图标</t>
+  </si>
+  <si>
+    <t>门票费用
+填0不弹二次确认框</t>
+  </si>
+  <si>
+    <t>进入游戏是否公示0否，1是</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Rank_name_1</t>
+  </si>
+  <si>
+    <t>Rank_name_2</t>
+  </si>
+  <si>
+    <t>Rank_name_3</t>
+  </si>
+  <si>
+    <t>Rank_name_4</t>
+  </si>
+  <si>
+    <t>Rank_name_5</t>
+  </si>
+  <si>
+    <t>Rank_name_6</t>
+  </si>
+  <si>
+    <t>Rank_name_7</t>
+  </si>
+  <si>
+    <t>13|18|20|23|25|28|30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>11|15|18|20|23|25|28</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|2|4|7|9|10|12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|3|5|7|9|10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|4|6|9|10|12|15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|6|9|10|12|15|18</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|9|10|12|15|18|20</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银 - Silver</t>
+  </si>
+  <si>
+    <t>黄金 - Gold</t>
+  </si>
+  <si>
+    <t>铂金 - Platinum</t>
+  </si>
+  <si>
+    <t>钻石 - Diamond</t>
+  </si>
+  <si>
+    <t>无双 - Immortal</t>
+  </si>
+  <si>
+    <t>青铜 - Bronze</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者 - King</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEFEFE"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFCFC"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -214,45 +347,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,133 +702,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <v>string</v>
-      </c>
-      <c r="H1" s="4" t="str">
-        <v>int</v>
-      </c>
-      <c r="I1" s="4" t="str">
-        <v>int</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>des</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>rankName</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>integral</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>rankIntegral</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>shopId</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <v>rankImgID</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <v>rankTicket</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <v>notice</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>段位（策划看）</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <v>段位名称</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>所需积分</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>（被）击败不同段位（丢）得分
-练气|筑基|金丹|元婴|化神|炼虚|合体</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <v>段位奖励商店ID
-（不填无奖励）</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <v>段位图标</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <v>门票费用
-填0不弹二次确认框</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <v>进入游戏是否公示0否，1是</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="6" t="str">
-        <v>Language</v>
-      </c>
-    </row>
-    <row r="5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>练气期</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>Rank_name_1</v>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <v>15|18|20|23|25|28|30</v>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5">
@@ -699,21 +838,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>筑基期</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>Rank_name_2</v>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <v>13|15|18|20|23|25|28</v>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6">
@@ -726,23 +865,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>金丹期</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>Rank_name_3</v>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>300</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <v>7|9|10|12|15|18|20</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6">
         <v>4001</v>
       </c>
       <c r="G7">
@@ -755,21 +894,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>元婴期</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>Rank_name_4</v>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <v>5|7|9|10|12|15|18</v>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="7">
         <v>4002</v>
@@ -784,23 +923,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>化神期</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>Rank_name_5</v>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>2000</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <v>3|5|7|9|10|12|15</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8">
         <v>4003</v>
       </c>
       <c r="G9">
@@ -813,21 +952,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>炼虚期</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>Rank_name_6</v>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>3500</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <v>1|3|5|7|9|10|12</v>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="7">
         <v>4004</v>
@@ -842,23 +981,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>合体期</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>Rank_name_7</v>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>6000</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <v>0|1|3|5|7|9|10</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9">
         <v>4005</v>
       </c>
       <c r="G11" s="1">
@@ -871,26 +1010,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/Rank_段位表.xlsx
+++ b/battleworld/Excel/Rank_段位表.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149AEF9-B076-4A42-81F1-93CE43971F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>int</t>
   </si>
@@ -96,162 +98,236 @@
     <t>Language</t>
   </si>
   <si>
+    <t>青铜 - Bronze</t>
+  </si>
+  <si>
     <t>Rank_name_1</t>
   </si>
   <si>
+    <t>13|18|20|23|25|28|30</t>
+  </si>
+  <si>
+    <t>白银 - Silver</t>
+  </si>
+  <si>
     <t>Rank_name_2</t>
   </si>
   <si>
+    <t>11|15|18|20|23|25|28</t>
+  </si>
+  <si>
+    <t>黄金 - Gold</t>
+  </si>
+  <si>
     <t>Rank_name_3</t>
   </si>
   <si>
+    <t>7|9|10|12|15|18|20</t>
+  </si>
+  <si>
+    <t>铂金 - Platinum</t>
+  </si>
+  <si>
     <t>Rank_name_4</t>
   </si>
   <si>
+    <t>4|6|9|10|12|15|18</t>
+  </si>
+  <si>
+    <t>钻石 - Diamond</t>
+  </si>
+  <si>
     <t>Rank_name_5</t>
   </si>
   <si>
-    <t>Rank_name_6</t>
-  </si>
-  <si>
-    <t>Rank_name_7</t>
-  </si>
-  <si>
-    <t>13|18|20|23|25|28|30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>11|15|18|20|23|25|28</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|2|4|7|9|10|12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1|3|5|7|9|10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>0|4|6|9|10|12|15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|6|9|10|12|15|18</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>7|9|10|12|15|18|20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银 - Silver</t>
-  </si>
-  <si>
-    <t>黄金 - Gold</t>
-  </si>
-  <si>
-    <t>铂金 - Platinum</t>
-  </si>
-  <si>
-    <t>钻石 - Diamond</t>
-  </si>
-  <si>
-    <t>无双 - Immortal</t>
-  </si>
-  <si>
-    <t>青铜 - Bronze</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者 - King</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,21 +336,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFEFEFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEFEFE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -283,124 +548,341 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,7 +931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -482,26 +964,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -534,23 +999,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,111 +1140,105 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="51" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -806,228 +1248,192 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:3">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <v>296288</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <v>296289</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:9">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5">
-        <v>153709</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4001</v>
+      </c>
+      <c r="G7">
+        <v>296292</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="8" ht="13.5" spans="1:9">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4002</v>
+      </c>
+      <c r="G8">
+        <v>296285</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:9">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6">
-        <v>153672</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>300</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4001</v>
-      </c>
-      <c r="G7">
-        <v>153707</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4002</v>
-      </c>
-      <c r="G8">
-        <v>153667</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>4003</v>
       </c>
       <c r="G9">
-        <v>153666</v>
-      </c>
-      <c r="H9" s="4">
+        <v>296281</v>
+      </c>
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3500</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4004</v>
-      </c>
-      <c r="G10">
-        <v>153702</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="9">
-        <v>4005</v>
-      </c>
-      <c r="G11" s="1">
-        <v>225466</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
+    <row r="10" ht="13.5" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="13.5" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/Rank_段位表.xlsx
+++ b/battleworld/Excel/Rank_段位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDFAB2-5CC0-4C59-9403-8258AA46F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A006E9-7B19-46CF-BF97-790942760DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Rank_name_4</t>
   </si>
   <si>
-    <t>4|6|9|10|12|15|18</t>
-  </si>
-  <si>
     <t>钻石 - Diamond</t>
   </si>
   <si>
@@ -146,6 +143,10 @@
   </si>
   <si>
     <t>黄金 - Gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|6|9|10|12|15|18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -538,13 +539,13 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -678,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>26</v>
@@ -699,13 +700,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>28</v>
@@ -734,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F8" s="8">
         <v>4002</v>
@@ -746,7 +747,7 @@
         <v>296285</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -757,16 +758,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="9">
         <v>4003</v>
@@ -775,7 +776,7 @@
         <v>296281</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>

--- a/battleworld/Excel/Rank_段位表.xlsx
+++ b/battleworld/Excel/Rank_段位表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A006E9-7B19-46CF-BF97-790942760DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB8A58-FA66-4F02-A8FE-338AA8CF4894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>所需积分</t>
-  </si>
-  <si>
-    <t>（被）击败不同段位（丢）得分
-练气|筑基|金丹|元婴|化神|炼虚|合体</t>
   </si>
   <si>
     <t>段位奖励商店ID
@@ -147,6 +143,36 @@
   </si>
   <si>
     <t>4|6|9|10|12|15|18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败不同段位得分
+练气|筑基|金丹|元婴|化神|炼虚|合体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被不同段位击败丢分
+练气|筑基|金丹|元婴|化神|炼虚|合体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankIntegralReduce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|23|15|12|10|8|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|18|10|9|6|4|2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23|20|12|10|9|6|4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -536,20 +562,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="5" max="6" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,19 +592,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,19 +624,22 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -621,202 +653,226 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5">
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
         <v>296288</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
-        <v>500</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6">
         <v>296289</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7">
         <v>4001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>296292</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="1">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="8">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8">
         <v>4002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>296285</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
         <v>4003</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>296281</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
